--- a/201712.xlsx
+++ b/201712.xlsx
@@ -45,7 +45,7 @@
     <t>杨   波</t>
   </si>
   <si>
-    <t>大专</t>
+    <t>本科</t>
   </si>
   <si>
     <t>3年</t>
@@ -61,9 +61,6 @@
     <t>赵   煜</t>
   </si>
   <si>
-    <t>本科</t>
-  </si>
-  <si>
     <t>2.5年</t>
   </si>
   <si>
@@ -98,6 +95,9 @@
   </si>
   <si>
     <t>实习</t>
+  </si>
+  <si>
+    <t>谭晓磊</t>
   </si>
 </sst>
 </file>
@@ -105,10 +105,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -146,7 +146,97 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,6 +250,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -168,14 +266,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -185,74 +275,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,29 +288,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -316,31 +316,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,145 +496,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,26 +562,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,36 +576,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,11 +606,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,10 +667,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -679,31 +679,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -712,100 +715,97 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1203,7 +1203,7 @@
   <dimension ref="A1:K239"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1280,10 +1280,10 @@
         <v>11</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="D5" s="6">
         <v>9</v>
@@ -1305,7 +1305,6 @@
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="10"/>
-      <c r="F6" s="1"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -1314,13 +1313,13 @@
     </row>
     <row r="7" ht="20" customHeight="1" spans="1:11">
       <c r="A7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>15</v>
       </c>
       <c r="D7" s="6">
         <v>9.5</v>
@@ -1350,13 +1349,13 @@
     </row>
     <row r="9" ht="20" customHeight="1" spans="1:11">
       <c r="A9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="D9" s="6">
         <v>8</v>
@@ -1384,13 +1383,13 @@
     </row>
     <row r="11" ht="20" customHeight="1" spans="1:11">
       <c r="A11" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="D11" s="6">
         <v>7.5</v>
@@ -1418,10 +1417,10 @@
     </row>
     <row r="13" ht="20" customHeight="1" spans="1:11">
       <c r="A13" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>8</v>
@@ -1452,19 +1451,19 @@
     </row>
     <row r="15" ht="20" customHeight="1" spans="1:11">
       <c r="A15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="D15" s="6">
         <v>8</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
@@ -1488,13 +1487,13 @@
     </row>
     <row r="17" ht="20" customHeight="1" spans="1:11">
       <c r="A17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="D17" s="6">
         <v>9</v>
@@ -1523,10 +1522,18 @@
       <c r="K18" s="11"/>
     </row>
     <row r="19" ht="20" customHeight="1" spans="1:11">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="6">
+        <v>8</v>
+      </c>
       <c r="E19" s="7"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>

--- a/201712.xlsx
+++ b/201712.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>姓名</t>
   </si>
@@ -99,14 +99,17 @@
   <si>
     <t>谭晓磊</t>
   </si>
+  <si>
+    <t>姬    利</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -152,8 +155,101 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,66 +263,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,39 +272,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,9 +285,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,19 +319,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,163 +397,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,11 +565,47 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,36 +645,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -645,17 +654,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,10 +670,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -679,133 +682,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1200,10 +1203,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K239"/>
+  <dimension ref="A1:K241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1541,12 +1544,14 @@
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
     </row>
-    <row r="20" ht="20" customHeight="1" spans="1:11">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="7"/>
+    <row r="20" s="1" customFormat="1" ht="30" customHeight="1" spans="1:11">
+      <c r="A20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="10"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
@@ -1554,10 +1559,18 @@
       <c r="K20" s="11"/>
     </row>
     <row r="21" ht="20" customHeight="1" spans="1:11">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="6">
+        <v>7.5</v>
+      </c>
       <c r="E21" s="7"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
@@ -1565,31 +1578,43 @@
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
     </row>
-    <row r="22" ht="20" customHeight="1" spans="1:11">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="7"/>
+    <row r="22" s="1" customFormat="1" ht="30" customHeight="1" spans="1:11">
+      <c r="A22" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
     </row>
-    <row r="23" ht="20" customHeight="1" spans="1:5">
+    <row r="23" ht="20" customHeight="1" spans="1:11">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="7"/>
-    </row>
-    <row r="24" ht="20" customHeight="1" spans="1:5">
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+    </row>
+    <row r="24" ht="20" customHeight="1" spans="1:11">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="7"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
     </row>
     <row r="25" ht="20" customHeight="1" spans="1:5">
       <c r="A25" s="6"/>
@@ -1627,18 +1652,18 @@
       <c r="E29" s="7"/>
     </row>
     <row r="30" ht="20" customHeight="1" spans="1:5">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="13"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="7"/>
     </row>
     <row r="31" ht="20" customHeight="1" spans="1:5">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="13"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="7"/>
     </row>
     <row r="32" ht="20" customHeight="1" spans="1:5">
       <c r="A32" s="12"/>
@@ -1829,8 +1854,20 @@
       <c r="D58" s="12"/>
       <c r="E58" s="13"/>
     </row>
-    <row r="59" ht="20" customHeight="1"/>
-    <row r="60" ht="20" customHeight="1"/>
+    <row r="59" ht="20" customHeight="1" spans="1:5">
+      <c r="A59" s="12"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="13"/>
+    </row>
+    <row r="60" ht="20" customHeight="1" spans="1:5">
+      <c r="A60" s="12"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="13"/>
+    </row>
     <row r="61" ht="20" customHeight="1"/>
     <row r="62" ht="20" customHeight="1"/>
     <row r="63" ht="20" customHeight="1"/>
@@ -2010,8 +2047,10 @@
     <row r="237" ht="20" customHeight="1"/>
     <row r="238" ht="20" customHeight="1"/>
     <row r="239" ht="20" customHeight="1"/>
+    <row r="240" ht="20" customHeight="1"/>
+    <row r="241" ht="20" customHeight="1"/>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="A8:E8"/>
@@ -2020,6 +2059,8 @@
     <mergeCell ref="A14:E14"/>
     <mergeCell ref="A16:E16"/>
     <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A22:E22"/>
     <mergeCell ref="G2:K8"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
